--- a/reporte mensual programador.xlsx
+++ b/reporte mensual programador.xlsx
@@ -31401,8 +31401,8 @@
   </sheetPr>
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31898,7 +31898,7 @@
       <c r="P15" s="106"/>
       <c r="Q15" s="108"/>
       <c r="R15" s="111" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S15" s="106"/>
       <c r="T15" s="108"/>

--- a/reporte mensual programador.xlsx
+++ b/reporte mensual programador.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Manual" sheetId="1" r:id="rId1"/>
@@ -2385,58 +2385,225 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2456,11 +2623,6 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2468,189 +2630,27 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="101" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="102" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31402,7 +31402,7 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:T15"/>
+      <selection activeCell="A32" sqref="A32:Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31420,94 +31420,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="130"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="169" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="136" t="s">
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="124"/>
+      <c r="X1" s="169" t="s">
         <v>138</v>
       </c>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="131"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="124"/>
       <c r="AA1" s="35"/>
     </row>
     <row r="2" spans="1:27" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="132"/>
-      <c r="B2" s="133"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="133"/>
-      <c r="H2" s="133"/>
-      <c r="I2" s="133"/>
-      <c r="J2" s="133"/>
-      <c r="K2" s="133"/>
-      <c r="L2" s="133"/>
-      <c r="M2" s="133"/>
-      <c r="N2" s="133"/>
-      <c r="O2" s="133"/>
-      <c r="P2" s="133"/>
-      <c r="Q2" s="133"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="128"/>
       <c r="AA2" s="35"/>
     </row>
     <row r="3" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="135"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="135"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="84"/>
+      <c r="A3" s="145"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="113"/>
       <c r="AA3" s="35"/>
     </row>
     <row r="4" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -31656,36 +31656,36 @@
       <c r="AA8" s="35"/>
     </row>
     <row r="9" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="170" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="138" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="133"/>
-      <c r="R9" s="133"/>
-      <c r="S9" s="133"/>
-      <c r="T9" s="133"/>
-      <c r="U9" s="133"/>
-      <c r="V9" s="133"/>
-      <c r="W9" s="133"/>
-      <c r="X9" s="133"/>
-      <c r="Y9" s="133"/>
-      <c r="Z9" s="133"/>
+      <c r="P9" s="111"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
+      <c r="U9" s="111"/>
+      <c r="V9" s="111"/>
+      <c r="W9" s="111"/>
+      <c r="X9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="111"/>
       <c r="AA9" s="35"/>
     </row>
     <row r="10" spans="1:27" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -31747,167 +31747,167 @@
       <c r="AA11" s="38"/>
     </row>
     <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="139" t="s">
+      <c r="A12" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="139" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="106"/>
-      <c r="O12" s="106"/>
-      <c r="P12" s="106"/>
-      <c r="Q12" s="106"/>
-      <c r="R12" s="106"/>
-      <c r="S12" s="106"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="141"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="88"/>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="88"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="88"/>
+      <c r="Z12" s="89"/>
       <c r="AA12" s="38"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="117" t="s">
+      <c r="A13" s="187" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="120"/>
-      <c r="D13" s="122" t="s">
+      <c r="C13" s="144"/>
+      <c r="D13" s="190" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125" t="s">
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="191" t="s">
         <v>141</v>
       </c>
-      <c r="J13" s="123"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
-      <c r="M13" s="123"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="122" t="s">
+      <c r="J13" s="102"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="103"/>
+      <c r="O13" s="190" t="s">
         <v>142</v>
       </c>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="123"/>
-      <c r="T13" s="126"/>
-      <c r="U13" s="127" t="s">
+      <c r="P13" s="102"/>
+      <c r="Q13" s="102"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="103"/>
+      <c r="U13" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="V13" s="92"/>
-      <c r="W13" s="92"/>
-      <c r="X13" s="92"/>
-      <c r="Y13" s="92"/>
-      <c r="Z13" s="93"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="139"/>
       <c r="AA13" s="38"/>
     </row>
     <row r="14" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="118"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="121"/>
-      <c r="D14" s="128" t="s">
+      <c r="A14" s="188"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="174" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="104"/>
-      <c r="F14" s="101" t="s">
+      <c r="E14" s="94"/>
+      <c r="F14" s="177" t="s">
         <v>145</v>
       </c>
-      <c r="G14" s="102"/>
+      <c r="G14" s="86"/>
       <c r="H14" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="I14" s="103" t="s">
+      <c r="I14" s="178" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="142" t="s">
+      <c r="J14" s="94"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="173" t="s">
         <v>148</v>
       </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="128" t="s">
+      <c r="M14" s="94"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="174" t="s">
         <v>147</v>
       </c>
-      <c r="P14" s="104"/>
-      <c r="Q14" s="102"/>
-      <c r="R14" s="129" t="s">
+      <c r="P14" s="94"/>
+      <c r="Q14" s="86"/>
+      <c r="R14" s="193" t="s">
         <v>148</v>
       </c>
-      <c r="S14" s="104"/>
-      <c r="T14" s="102"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="96"/>
+      <c r="S14" s="94"/>
+      <c r="T14" s="86"/>
+      <c r="U14" s="83"/>
+      <c r="V14" s="83"/>
+      <c r="W14" s="83"/>
+      <c r="X14" s="83"/>
+      <c r="Y14" s="83"/>
+      <c r="Z14" s="84"/>
       <c r="AA14" s="38"/>
     </row>
     <row r="15" spans="1:27" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
         <v>0</v>
       </c>
-      <c r="B15" s="105">
+      <c r="B15" s="179">
         <v>0</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107" t="s">
+      <c r="C15" s="88"/>
+      <c r="D15" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="108"/>
-      <c r="F15" s="107" t="s">
+      <c r="E15" s="181"/>
+      <c r="F15" s="180" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="108"/>
+      <c r="G15" s="181"/>
       <c r="H15" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="I15" s="109" t="s">
+      <c r="I15" s="182" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="106"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="111" t="s">
+      <c r="J15" s="88"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="M15" s="106"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="112">
+      <c r="M15" s="88"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="185">
         <v>77</v>
       </c>
-      <c r="P15" s="106"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="111" t="s">
-        <v>211</v>
+      <c r="P15" s="88"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="184" t="s">
+        <v>212</v>
       </c>
-      <c r="S15" s="106"/>
-      <c r="T15" s="108"/>
-      <c r="U15" s="113"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="96"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="186"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="84"/>
       <c r="AA15" s="35"/>
     </row>
     <row r="16" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -31940,248 +31940,248 @@
       <c r="AA16" s="38"/>
     </row>
     <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="162" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="115"/>
-      <c r="Y17" s="115"/>
-      <c r="Z17" s="116"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="163"/>
+      <c r="O17" s="163"/>
+      <c r="P17" s="163"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="163"/>
+      <c r="W17" s="163"/>
+      <c r="X17" s="163"/>
+      <c r="Y17" s="163"/>
+      <c r="Z17" s="164"/>
       <c r="AA17" s="38"/>
     </row>
     <row r="18" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="110" t="s">
+      <c r="A18" s="183" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="91" t="s">
+      <c r="B18" s="135"/>
+      <c r="C18" s="135"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="165" t="s">
         <v>151</v>
       </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="97" t="s">
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="135"/>
+      <c r="I18" s="135"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="175" t="s">
         <v>152</v>
       </c>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="97" t="s">
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="92"/>
-      <c r="U18" s="92"/>
-      <c r="V18" s="98" t="s">
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="W18" s="99"/>
-      <c r="X18" s="99"/>
-      <c r="Y18" s="99"/>
-      <c r="Z18" s="99"/>
+      <c r="W18" s="80"/>
+      <c r="X18" s="80"/>
+      <c r="Y18" s="80"/>
+      <c r="Z18" s="80"/>
       <c r="AA18" s="42"/>
     </row>
     <row r="19" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="94"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="100"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
+      <c r="A19" s="137"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="137"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="82"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
+      <c r="Z19" s="83"/>
       <c r="AA19" s="42"/>
     </row>
     <row r="20" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="172">
+      <c r="A20" s="143">
         <v>31</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="170" t="s">
+      <c r="B20" s="135"/>
+      <c r="C20" s="135"/>
+      <c r="D20" s="144"/>
+      <c r="E20" s="138" t="s">
         <v>153</v>
       </c>
-      <c r="F20" s="120"/>
-      <c r="G20" s="173" t="s">
+      <c r="F20" s="144"/>
+      <c r="G20" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="H20" s="120"/>
-      <c r="I20" s="151" t="s">
+      <c r="H20" s="144"/>
+      <c r="I20" s="147" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="93"/>
-      <c r="K20" s="168" t="s">
+      <c r="J20" s="139"/>
+      <c r="K20" s="134" t="s">
         <v>153</v>
       </c>
-      <c r="L20" s="120"/>
-      <c r="M20" s="173" t="s">
+      <c r="L20" s="144"/>
+      <c r="M20" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="N20" s="120"/>
-      <c r="O20" s="174" t="s">
+      <c r="N20" s="144"/>
+      <c r="O20" s="148" t="s">
         <v>155</v>
       </c>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="168" t="s">
+      <c r="P20" s="141"/>
+      <c r="Q20" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="R20" s="92"/>
-      <c r="S20" s="92"/>
-      <c r="T20" s="92"/>
-      <c r="U20" s="92"/>
-      <c r="V20" s="170" t="s">
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="138" t="s">
         <v>149</v>
       </c>
-      <c r="W20" s="92"/>
-      <c r="X20" s="92"/>
-      <c r="Y20" s="92"/>
-      <c r="Z20" s="93"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="139"/>
       <c r="AA20" s="38"/>
     </row>
     <row r="21" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="169"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="133"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="135"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="88"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="169"/>
-      <c r="R21" s="133"/>
-      <c r="S21" s="133"/>
-      <c r="T21" s="133"/>
-      <c r="U21" s="133"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="133"/>
-      <c r="X21" s="133"/>
-      <c r="Y21" s="133"/>
-      <c r="Z21" s="158"/>
+      <c r="A21" s="136"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="113"/>
+      <c r="O21" s="109"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="136"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
+      <c r="U21" s="111"/>
+      <c r="V21" s="140"/>
+      <c r="W21" s="111"/>
+      <c r="X21" s="111"/>
+      <c r="Y21" s="111"/>
+      <c r="Z21" s="141"/>
       <c r="AA21" s="38"/>
     </row>
     <row r="22" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="169"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="133"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="130" t="s">
+      <c r="A22" s="136"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="128"/>
+      <c r="E22" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="F22" s="131"/>
-      <c r="G22" s="163">
+      <c r="F22" s="124"/>
+      <c r="G22" s="126">
         <v>0</v>
       </c>
-      <c r="H22" s="131"/>
-      <c r="I22" s="163">
+      <c r="H22" s="124"/>
+      <c r="I22" s="126">
         <v>0</v>
       </c>
-      <c r="J22" s="154"/>
-      <c r="K22" s="171" t="s">
+      <c r="J22" s="81"/>
+      <c r="K22" s="142" t="s">
         <v>156</v>
       </c>
-      <c r="L22" s="131"/>
-      <c r="M22" s="163">
+      <c r="L22" s="124"/>
+      <c r="M22" s="126">
         <v>0</v>
       </c>
-      <c r="N22" s="131"/>
-      <c r="O22" s="163">
+      <c r="N22" s="124"/>
+      <c r="O22" s="126">
         <v>0</v>
       </c>
-      <c r="P22" s="131"/>
-      <c r="Q22" s="169"/>
-      <c r="R22" s="133"/>
-      <c r="S22" s="133"/>
-      <c r="T22" s="133"/>
-      <c r="U22" s="133"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="133"/>
-      <c r="X22" s="133"/>
-      <c r="Y22" s="133"/>
-      <c r="Z22" s="158"/>
+      <c r="P22" s="124"/>
+      <c r="Q22" s="136"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
+      <c r="U22" s="111"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="111"/>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="141"/>
       <c r="AA22" s="35"/>
     </row>
     <row r="23" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="94"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="121"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="100"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="100"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="100"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="96"/>
+      <c r="A23" s="137"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="82"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="137"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="125"/>
+      <c r="Q23" s="137"/>
+      <c r="R23" s="83"/>
+      <c r="S23" s="83"/>
+      <c r="T23" s="83"/>
+      <c r="U23" s="83"/>
+      <c r="V23" s="82"/>
+      <c r="W23" s="83"/>
+      <c r="X23" s="83"/>
+      <c r="Y23" s="83"/>
+      <c r="Z23" s="84"/>
       <c r="AA23" s="35"/>
     </row>
     <row r="24" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -32213,183 +32213,183 @@
       <c r="Z24" s="36"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="139" t="s">
+      <c r="A25" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="106"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
-      <c r="L25" s="106"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="106"/>
-      <c r="O25" s="106"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="106"/>
-      <c r="R25" s="106"/>
-      <c r="S25" s="106"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="141"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="88"/>
+      <c r="N25" s="88"/>
+      <c r="O25" s="88"/>
+      <c r="P25" s="88"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="88"/>
+      <c r="S25" s="88"/>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="88"/>
+      <c r="X25" s="88"/>
+      <c r="Y25" s="88"/>
+      <c r="Z25" s="89"/>
       <c r="AA25" s="38"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="164" t="s">
+      <c r="A26" s="127" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="134"/>
-      <c r="C26" s="165" t="s">
+      <c r="B26" s="128"/>
+      <c r="C26" s="130" t="s">
         <v>157</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="159" t="s">
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="154" t="s">
         <v>63</v>
       </c>
-      <c r="J26" s="92"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="93"/>
-      <c r="O26" s="166" t="s">
+      <c r="J26" s="135"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="131" t="s">
         <v>158</v>
       </c>
-      <c r="P26" s="88"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="88"/>
-      <c r="S26" s="88"/>
-      <c r="T26" s="88"/>
-      <c r="U26" s="88"/>
-      <c r="V26" s="88"/>
-      <c r="W26" s="88"/>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="88"/>
-      <c r="Z26" s="90"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="132"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="160"/>
-      <c r="B27" s="84"/>
-      <c r="C27" s="155" t="s">
+      <c r="A27" s="129"/>
+      <c r="B27" s="113"/>
+      <c r="C27" s="151" t="s">
         <v>144</v>
       </c>
-      <c r="D27" s="82"/>
-      <c r="E27" s="155" t="s">
+      <c r="D27" s="97"/>
+      <c r="E27" s="151" t="s">
         <v>145</v>
       </c>
-      <c r="F27" s="82"/>
-      <c r="G27" s="167" t="s">
+      <c r="F27" s="97"/>
+      <c r="G27" s="133" t="s">
         <v>146</v>
       </c>
-      <c r="H27" s="82"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="88"/>
-      <c r="L27" s="88"/>
-      <c r="M27" s="88"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="161" t="s">
+      <c r="H27" s="97"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="162" t="s">
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="97"/>
+      <c r="S27" s="156" t="s">
         <v>160</v>
       </c>
-      <c r="T27" s="80"/>
-      <c r="U27" s="80"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="162" t="s">
+      <c r="T27" s="99"/>
+      <c r="U27" s="99"/>
+      <c r="V27" s="97"/>
+      <c r="W27" s="156" t="s">
         <v>161</v>
       </c>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="81"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="99"/>
+      <c r="Z27" s="157"/>
     </row>
     <row r="28" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="156">
+      <c r="A28" s="152">
         <v>0</v>
       </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="153">
+      <c r="B28" s="124"/>
+      <c r="C28" s="150">
         <v>0</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="153">
+      <c r="D28" s="124"/>
+      <c r="E28" s="150">
         <v>0</v>
       </c>
-      <c r="F28" s="131"/>
-      <c r="G28" s="153">
+      <c r="F28" s="124"/>
+      <c r="G28" s="150">
         <v>0</v>
       </c>
-      <c r="H28" s="131"/>
-      <c r="I28" s="157" t="s">
+      <c r="H28" s="124"/>
+      <c r="I28" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="J28" s="133"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="158"/>
-      <c r="O28" s="152">
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="149">
         <v>0</v>
       </c>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="131"/>
-      <c r="S28" s="153">
+      <c r="P28" s="80"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="124"/>
+      <c r="S28" s="150">
         <v>0</v>
       </c>
-      <c r="T28" s="99"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="131"/>
-      <c r="W28" s="153">
+      <c r="T28" s="80"/>
+      <c r="U28" s="80"/>
+      <c r="V28" s="124"/>
+      <c r="W28" s="150">
         <v>0</v>
       </c>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="154"/>
+      <c r="X28" s="80"/>
+      <c r="Y28" s="80"/>
+      <c r="Z28" s="81"/>
     </row>
     <row r="29" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="94"/>
-      <c r="B29" s="121"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="121"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="121"/>
-      <c r="I29" s="94"/>
-      <c r="J29" s="95"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="96"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="95"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="96"/>
+      <c r="A29" s="137"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="83"/>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="125"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="125"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="84"/>
     </row>
     <row r="30" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
@@ -32420,11 +32420,11 @@
       <c r="Z30" s="36"/>
     </row>
     <row r="31" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="147"/>
-      <c r="B31" s="133"/>
-      <c r="C31" s="133"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="133"/>
+      <c r="A31" s="110"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
@@ -32449,88 +32449,88 @@
       <c r="AA31" s="35"/>
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="114" t="s">
+      <c r="A32" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="115"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="115"/>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="115"/>
-      <c r="S32" s="115"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="115"/>
-      <c r="W32" s="115"/>
-      <c r="X32" s="115"/>
-      <c r="Y32" s="115"/>
-      <c r="Z32" s="116"/>
+      <c r="B32" s="163"/>
+      <c r="C32" s="163"/>
+      <c r="D32" s="163"/>
+      <c r="E32" s="163"/>
+      <c r="F32" s="163"/>
+      <c r="G32" s="163"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="163"/>
+      <c r="J32" s="163"/>
+      <c r="K32" s="163"/>
+      <c r="L32" s="163"/>
+      <c r="M32" s="163"/>
+      <c r="N32" s="163"/>
+      <c r="O32" s="163"/>
+      <c r="P32" s="163"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="163"/>
+      <c r="V32" s="163"/>
+      <c r="W32" s="163"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="164"/>
       <c r="AA32" s="38"/>
     </row>
     <row r="33" spans="1:27" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="91" t="s">
+      <c r="A33" s="165" t="s">
         <v>164</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="148" t="s">
+      <c r="B33" s="135"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="E33" s="149" t="s">
+      <c r="E33" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="F33" s="123"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="150" t="s">
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="168" t="s">
         <v>166</v>
       </c>
-      <c r="I33" s="123"/>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="126"/>
-      <c r="N33" s="143" t="s">
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="158" t="s">
         <v>167</v>
       </c>
-      <c r="O33" s="123"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="143" t="s">
+      <c r="O33" s="102"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="158" t="s">
         <v>168</v>
       </c>
-      <c r="R33" s="123"/>
-      <c r="S33" s="123"/>
-      <c r="T33" s="123"/>
-      <c r="U33" s="126"/>
-      <c r="V33" s="144" t="s">
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="159" t="s">
         <v>169</v>
       </c>
-      <c r="W33" s="144" t="s">
+      <c r="W33" s="159" t="s">
         <v>170</v>
       </c>
-      <c r="X33" s="151" t="s">
+      <c r="X33" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="93"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="139"/>
       <c r="AA33" s="45"/>
     </row>
     <row r="34" spans="1:27" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="94"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="121"/>
-      <c r="D34" s="145"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="160"/>
       <c r="E34" s="46" t="s">
         <v>172</v>
       </c>
@@ -32540,47 +32540,47 @@
       <c r="G34" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="H34" s="146" t="s">
+      <c r="H34" s="161" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="104"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="146" t="s">
+      <c r="I34" s="94"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="161" t="s">
         <v>88</v>
       </c>
-      <c r="L34" s="104"/>
-      <c r="M34" s="102"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="86"/>
       <c r="N34" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="O34" s="146" t="s">
+      <c r="O34" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="P34" s="102"/>
+      <c r="P34" s="86"/>
       <c r="Q34" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="R34" s="146" t="s">
+      <c r="R34" s="161" t="s">
         <v>176</v>
       </c>
-      <c r="S34" s="102"/>
-      <c r="T34" s="146" t="s">
+      <c r="S34" s="86"/>
+      <c r="T34" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="U34" s="102"/>
-      <c r="V34" s="145"/>
-      <c r="W34" s="145"/>
-      <c r="X34" s="100"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="96"/>
+      <c r="U34" s="86"/>
+      <c r="V34" s="160"/>
+      <c r="W34" s="160"/>
+      <c r="X34" s="82"/>
+      <c r="Y34" s="83"/>
+      <c r="Z34" s="84"/>
       <c r="AA34" s="47"/>
     </row>
     <row r="35" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="196" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="88"/>
-      <c r="C35" s="84"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="48" t="s">
         <v>178</v>
       </c>
@@ -32593,42 +32593,42 @@
       <c r="G35" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="H35" s="87"/>
-      <c r="I35" s="88"/>
-      <c r="J35" s="84"/>
-      <c r="K35" s="87" t="s">
+      <c r="H35" s="194"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="194" t="s">
         <v>180</v>
       </c>
-      <c r="L35" s="88"/>
-      <c r="M35" s="84"/>
+      <c r="L35" s="109"/>
+      <c r="M35" s="113"/>
       <c r="N35" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="O35" s="87"/>
-      <c r="P35" s="84"/>
+      <c r="O35" s="194"/>
+      <c r="P35" s="113"/>
       <c r="Q35" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="R35" s="83" t="s">
+      <c r="R35" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="S35" s="84"/>
-      <c r="T35" s="83" t="s">
+      <c r="S35" s="113"/>
+      <c r="T35" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="U35" s="84"/>
+      <c r="U35" s="113"/>
       <c r="V35" s="50"/>
       <c r="W35" s="50"/>
-      <c r="X35" s="87"/>
-      <c r="Y35" s="88"/>
-      <c r="Z35" s="90"/>
+      <c r="X35" s="194"/>
+      <c r="Y35" s="109"/>
+      <c r="Z35" s="132"/>
     </row>
     <row r="36" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="86" t="s">
+      <c r="A36" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="82"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="97"/>
       <c r="D36" s="52" t="s">
         <v>183</v>
       </c>
@@ -32641,72 +32641,72 @@
       <c r="G36" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="H36" s="79"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="87" t="s">
+      <c r="H36" s="115"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="194" t="s">
         <v>180</v>
       </c>
-      <c r="L36" s="88"/>
-      <c r="M36" s="84"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="113"/>
       <c r="N36" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="O36" s="79"/>
-      <c r="P36" s="82"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="97"/>
       <c r="Q36" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="R36" s="83" t="s">
+      <c r="R36" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="S36" s="84"/>
-      <c r="T36" s="83" t="s">
+      <c r="S36" s="113"/>
+      <c r="T36" s="112" t="s">
         <v>181</v>
       </c>
-      <c r="U36" s="84"/>
+      <c r="U36" s="113"/>
       <c r="V36" s="53"/>
       <c r="W36" s="53"/>
-      <c r="X36" s="79"/>
-      <c r="Y36" s="80"/>
-      <c r="Z36" s="81"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="99"/>
+      <c r="Z36" s="157"/>
     </row>
     <row r="37" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="86" t="s">
+      <c r="A37" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="82"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="97"/>
       <c r="D37" s="52"/>
       <c r="E37" s="49"/>
       <c r="F37" s="49"/>
       <c r="G37" s="49"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="82"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="99"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="99"/>
+      <c r="M37" s="97"/>
       <c r="N37" s="53"/>
-      <c r="O37" s="79"/>
-      <c r="P37" s="82"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="97"/>
       <c r="Q37" s="53"/>
-      <c r="R37" s="79"/>
-      <c r="S37" s="82"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="82"/>
+      <c r="R37" s="115"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="115"/>
+      <c r="U37" s="97"/>
       <c r="V37" s="53"/>
       <c r="W37" s="53"/>
-      <c r="X37" s="79"/>
-      <c r="Y37" s="80"/>
-      <c r="Z37" s="81"/>
+      <c r="X37" s="115"/>
+      <c r="Y37" s="99"/>
+      <c r="Z37" s="157"/>
     </row>
     <row r="38" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="82"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="97"/>
       <c r="D38" s="52" t="s">
         <v>186</v>
       </c>
@@ -32719,42 +32719,42 @@
       <c r="G38" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="79"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="82"/>
-      <c r="K38" s="79" t="s">
+      <c r="H38" s="115"/>
+      <c r="I38" s="99"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="L38" s="80"/>
-      <c r="M38" s="82"/>
+      <c r="L38" s="99"/>
+      <c r="M38" s="97"/>
       <c r="N38" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="O38" s="79"/>
-      <c r="P38" s="82"/>
+      <c r="O38" s="115"/>
+      <c r="P38" s="97"/>
       <c r="Q38" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="R38" s="83" t="s">
+      <c r="R38" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="S38" s="84"/>
-      <c r="T38" s="85" t="s">
+      <c r="S38" s="113"/>
+      <c r="T38" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="U38" s="82"/>
+      <c r="U38" s="97"/>
       <c r="V38" s="53"/>
       <c r="W38" s="53"/>
-      <c r="X38" s="79"/>
-      <c r="Y38" s="80"/>
-      <c r="Z38" s="81"/>
+      <c r="X38" s="115"/>
+      <c r="Y38" s="99"/>
+      <c r="Z38" s="157"/>
     </row>
     <row r="39" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="114" t="s">
         <v>187</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="82"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="97"/>
       <c r="D39" s="52" t="s">
         <v>188</v>
       </c>
@@ -32767,42 +32767,42 @@
       <c r="G39" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="H39" s="79"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="82"/>
-      <c r="K39" s="79" t="s">
+      <c r="H39" s="115"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="L39" s="80"/>
-      <c r="M39" s="82"/>
+      <c r="L39" s="99"/>
+      <c r="M39" s="97"/>
       <c r="N39" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="O39" s="79"/>
-      <c r="P39" s="82"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="97"/>
       <c r="Q39" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="R39" s="83" t="s">
+      <c r="R39" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="S39" s="84"/>
-      <c r="T39" s="85" t="s">
+      <c r="S39" s="113"/>
+      <c r="T39" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="U39" s="82"/>
+      <c r="U39" s="97"/>
       <c r="V39" s="53"/>
       <c r="W39" s="53"/>
-      <c r="X39" s="79"/>
-      <c r="Y39" s="80"/>
-      <c r="Z39" s="81"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="99"/>
+      <c r="Z39" s="157"/>
     </row>
     <row r="40" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="86" t="s">
+      <c r="A40" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="82"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="97"/>
       <c r="D40" s="52" t="s">
         <v>190</v>
       </c>
@@ -32815,42 +32815,42 @@
       <c r="G40" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="79"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="82"/>
-      <c r="K40" s="79" t="s">
+      <c r="H40" s="115"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="L40" s="80"/>
-      <c r="M40" s="82"/>
+      <c r="L40" s="99"/>
+      <c r="M40" s="97"/>
       <c r="N40" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="O40" s="79"/>
-      <c r="P40" s="82"/>
+      <c r="O40" s="115"/>
+      <c r="P40" s="97"/>
       <c r="Q40" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="R40" s="83" t="s">
+      <c r="R40" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="S40" s="84"/>
-      <c r="T40" s="85" t="s">
+      <c r="S40" s="113"/>
+      <c r="T40" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="U40" s="82"/>
+      <c r="U40" s="97"/>
       <c r="V40" s="53"/>
       <c r="W40" s="53"/>
-      <c r="X40" s="79"/>
-      <c r="Y40" s="80"/>
-      <c r="Z40" s="81"/>
+      <c r="X40" s="115"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="157"/>
     </row>
     <row r="41" spans="1:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="86" t="s">
+      <c r="A41" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="B41" s="80"/>
-      <c r="C41" s="82"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="97"/>
       <c r="D41" s="52" t="s">
         <v>190</v>
       </c>
@@ -32863,42 +32863,42 @@
       <c r="G41" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="H41" s="79"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="82"/>
-      <c r="K41" s="79" t="s">
+      <c r="H41" s="115"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="80"/>
-      <c r="M41" s="82"/>
+      <c r="L41" s="99"/>
+      <c r="M41" s="97"/>
       <c r="N41" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="O41" s="79"/>
-      <c r="P41" s="82"/>
+      <c r="O41" s="115"/>
+      <c r="P41" s="97"/>
       <c r="Q41" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="R41" s="83" t="s">
+      <c r="R41" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="S41" s="84"/>
-      <c r="T41" s="85" t="s">
+      <c r="S41" s="113"/>
+      <c r="T41" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="U41" s="82"/>
+      <c r="U41" s="97"/>
       <c r="V41" s="53"/>
       <c r="W41" s="53"/>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="80"/>
-      <c r="Z41" s="81"/>
+      <c r="X41" s="115"/>
+      <c r="Y41" s="99"/>
+      <c r="Z41" s="157"/>
     </row>
     <row r="42" spans="1:27" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="86" t="s">
+      <c r="A42" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="80"/>
-      <c r="C42" s="82"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="52" t="s">
         <v>178</v>
       </c>
@@ -32911,65 +32911,65 @@
       <c r="G42" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="H42" s="79"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="82"/>
-      <c r="K42" s="79" t="s">
+      <c r="H42" s="115"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="115" t="s">
         <v>180</v>
       </c>
-      <c r="L42" s="80"/>
-      <c r="M42" s="82"/>
+      <c r="L42" s="99"/>
+      <c r="M42" s="97"/>
       <c r="N42" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="O42" s="79"/>
-      <c r="P42" s="82"/>
+      <c r="O42" s="115"/>
+      <c r="P42" s="97"/>
       <c r="Q42" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="R42" s="83" t="s">
+      <c r="R42" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="S42" s="84"/>
-      <c r="T42" s="85" t="s">
+      <c r="S42" s="113"/>
+      <c r="T42" s="195" t="s">
         <v>181</v>
       </c>
-      <c r="U42" s="82"/>
+      <c r="U42" s="97"/>
       <c r="V42" s="53"/>
       <c r="W42" s="53"/>
-      <c r="X42" s="79"/>
-      <c r="Y42" s="80"/>
-      <c r="Z42" s="81"/>
+      <c r="X42" s="115"/>
+      <c r="Y42" s="99"/>
+      <c r="Z42" s="157"/>
     </row>
     <row r="43" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="176" t="s">
+      <c r="A43" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="104"/>
-      <c r="C43" s="102"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="86"/>
       <c r="D43" s="55"/>
       <c r="E43" s="56"/>
       <c r="F43" s="56"/>
       <c r="G43" s="56"/>
-      <c r="H43" s="183"/>
-      <c r="I43" s="104"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="183"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="102"/>
+      <c r="H43" s="95"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="86"/>
       <c r="N43" s="56"/>
-      <c r="O43" s="183"/>
-      <c r="P43" s="102"/>
+      <c r="O43" s="95"/>
+      <c r="P43" s="86"/>
       <c r="Q43" s="56"/>
-      <c r="R43" s="183"/>
-      <c r="S43" s="102"/>
-      <c r="T43" s="183"/>
-      <c r="U43" s="102"/>
+      <c r="R43" s="95"/>
+      <c r="S43" s="86"/>
+      <c r="T43" s="95"/>
+      <c r="U43" s="86"/>
       <c r="V43" s="56"/>
       <c r="W43" s="56"/>
-      <c r="X43" s="183"/>
-      <c r="Y43" s="104"/>
-      <c r="Z43" s="186"/>
+      <c r="X43" s="95"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="106"/>
     </row>
     <row r="44" spans="1:27" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
@@ -33000,145 +33000,145 @@
       <c r="Z44" s="36"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="139" t="s">
+      <c r="A45" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
-      <c r="L45" s="106"/>
-      <c r="M45" s="106"/>
-      <c r="N45" s="106"/>
-      <c r="O45" s="106"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="106"/>
-      <c r="R45" s="106"/>
-      <c r="S45" s="106"/>
-      <c r="T45" s="106"/>
-      <c r="U45" s="106"/>
-      <c r="V45" s="106"/>
-      <c r="W45" s="106"/>
-      <c r="X45" s="106"/>
-      <c r="Y45" s="106"/>
-      <c r="Z45" s="141"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="88"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
+      <c r="J45" s="88"/>
+      <c r="K45" s="88"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="88"/>
+      <c r="N45" s="88"/>
+      <c r="O45" s="88"/>
+      <c r="P45" s="88"/>
+      <c r="Q45" s="88"/>
+      <c r="R45" s="88"/>
+      <c r="S45" s="88"/>
+      <c r="T45" s="88"/>
+      <c r="U45" s="88"/>
+      <c r="V45" s="88"/>
+      <c r="W45" s="88"/>
+      <c r="X45" s="88"/>
+      <c r="Y45" s="88"/>
+      <c r="Z45" s="89"/>
       <c r="AA45" s="38"/>
     </row>
     <row r="46" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="187" t="s">
+      <c r="A46" s="107" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="123"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="126"/>
-      <c r="H46" s="184" t="s">
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="102"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="I46" s="123"/>
-      <c r="J46" s="123"/>
-      <c r="K46" s="123"/>
-      <c r="L46" s="123"/>
-      <c r="M46" s="123"/>
-      <c r="N46" s="123"/>
-      <c r="O46" s="123"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="185" t="s">
+      <c r="I46" s="102"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="102"/>
+      <c r="M46" s="102"/>
+      <c r="N46" s="102"/>
+      <c r="O46" s="102"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="R46" s="123"/>
-      <c r="S46" s="123"/>
-      <c r="T46" s="123"/>
-      <c r="U46" s="123"/>
-      <c r="V46" s="123"/>
-      <c r="W46" s="123"/>
-      <c r="X46" s="123"/>
-      <c r="Y46" s="123"/>
-      <c r="Z46" s="124"/>
+      <c r="R46" s="102"/>
+      <c r="S46" s="102"/>
+      <c r="T46" s="102"/>
+      <c r="U46" s="102"/>
+      <c r="V46" s="102"/>
+      <c r="W46" s="102"/>
+      <c r="X46" s="102"/>
+      <c r="Y46" s="102"/>
+      <c r="Z46" s="105"/>
     </row>
     <row r="47" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="189" t="s">
+      <c r="A47" s="96" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="190" t="s">
+      <c r="B47" s="97"/>
+      <c r="C47" s="98" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="82"/>
-      <c r="H47" s="191" t="s">
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="100" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="80"/>
-      <c r="J47" s="82"/>
-      <c r="K47" s="191" t="s">
+      <c r="I47" s="99"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="100" t="s">
         <v>200</v>
       </c>
-      <c r="L47" s="80"/>
-      <c r="M47" s="82"/>
-      <c r="N47" s="191" t="s">
+      <c r="L47" s="99"/>
+      <c r="M47" s="97"/>
+      <c r="N47" s="100" t="s">
         <v>201</v>
       </c>
-      <c r="O47" s="80"/>
-      <c r="P47" s="82"/>
-      <c r="Q47" s="192"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="99"/>
-      <c r="T47" s="99"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
-      <c r="W47" s="99"/>
-      <c r="X47" s="99"/>
-      <c r="Y47" s="99"/>
-      <c r="Z47" s="154"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="79"/>
+      <c r="R47" s="80"/>
+      <c r="S47" s="80"/>
+      <c r="T47" s="80"/>
+      <c r="U47" s="80"/>
+      <c r="V47" s="80"/>
+      <c r="W47" s="80"/>
+      <c r="X47" s="80"/>
+      <c r="Y47" s="80"/>
+      <c r="Z47" s="81"/>
     </row>
     <row r="48" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="193" t="s">
+      <c r="A48" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="B48" s="102"/>
-      <c r="C48" s="188">
+      <c r="B48" s="86"/>
+      <c r="C48" s="93">
         <v>1</v>
       </c>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="183" t="s">
+      <c r="D48" s="94"/>
+      <c r="E48" s="94"/>
+      <c r="F48" s="94"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="I48" s="104"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="183" t="s">
+      <c r="I48" s="94"/>
+      <c r="J48" s="86"/>
+      <c r="K48" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="L48" s="104"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="183" t="s">
+      <c r="L48" s="94"/>
+      <c r="M48" s="86"/>
+      <c r="N48" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="O48" s="104"/>
-      <c r="P48" s="102"/>
-      <c r="Q48" s="100"/>
-      <c r="R48" s="95"/>
-      <c r="S48" s="95"/>
-      <c r="T48" s="95"/>
-      <c r="U48" s="95"/>
-      <c r="V48" s="95"/>
-      <c r="W48" s="95"/>
-      <c r="X48" s="95"/>
-      <c r="Y48" s="95"/>
-      <c r="Z48" s="96"/>
+      <c r="O48" s="94"/>
+      <c r="P48" s="86"/>
+      <c r="Q48" s="82"/>
+      <c r="R48" s="83"/>
+      <c r="S48" s="83"/>
+      <c r="T48" s="83"/>
+      <c r="U48" s="83"/>
+      <c r="V48" s="83"/>
+      <c r="W48" s="83"/>
+      <c r="X48" s="83"/>
+      <c r="Y48" s="83"/>
+      <c r="Z48" s="84"/>
     </row>
     <row r="49" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
@@ -33169,216 +33169,216 @@
       <c r="Z49" s="36"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="139" t="s">
+      <c r="A50" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="106"/>
-      <c r="K50" s="106"/>
-      <c r="L50" s="106"/>
-      <c r="M50" s="106"/>
-      <c r="N50" s="106"/>
-      <c r="O50" s="106"/>
-      <c r="P50" s="106"/>
-      <c r="Q50" s="106"/>
-      <c r="R50" s="106"/>
-      <c r="S50" s="106"/>
-      <c r="T50" s="106"/>
-      <c r="U50" s="106"/>
-      <c r="V50" s="106"/>
-      <c r="W50" s="106"/>
-      <c r="X50" s="106"/>
-      <c r="Y50" s="106"/>
-      <c r="Z50" s="141"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+      <c r="G50" s="88"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
+      <c r="J50" s="88"/>
+      <c r="K50" s="88"/>
+      <c r="L50" s="88"/>
+      <c r="M50" s="88"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="88"/>
+      <c r="Q50" s="88"/>
+      <c r="R50" s="88"/>
+      <c r="S50" s="88"/>
+      <c r="T50" s="88"/>
+      <c r="U50" s="88"/>
+      <c r="V50" s="88"/>
+      <c r="W50" s="88"/>
+      <c r="X50" s="88"/>
+      <c r="Y50" s="88"/>
+      <c r="Z50" s="89"/>
       <c r="AA50" s="38"/>
     </row>
     <row r="51" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B51" s="194"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="195"/>
-      <c r="E51" s="195"/>
-      <c r="F51" s="195"/>
-      <c r="G51" s="195"/>
-      <c r="H51" s="195"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="195"/>
-      <c r="K51" s="195"/>
-      <c r="L51" s="195"/>
-      <c r="M51" s="195"/>
-      <c r="N51" s="195"/>
-      <c r="O51" s="195"/>
-      <c r="P51" s="195"/>
-      <c r="Q51" s="195"/>
-      <c r="R51" s="195"/>
-      <c r="S51" s="195"/>
-      <c r="T51" s="195"/>
-      <c r="U51" s="195"/>
-      <c r="V51" s="195"/>
-      <c r="W51" s="195"/>
-      <c r="X51" s="195"/>
-      <c r="Y51" s="195"/>
-      <c r="Z51" s="196"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="91"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="91"/>
+      <c r="N51" s="91"/>
+      <c r="O51" s="91"/>
+      <c r="P51" s="91"/>
+      <c r="Q51" s="91"/>
+      <c r="R51" s="91"/>
+      <c r="S51" s="91"/>
+      <c r="T51" s="91"/>
+      <c r="U51" s="91"/>
+      <c r="V51" s="91"/>
+      <c r="W51" s="91"/>
+      <c r="X51" s="91"/>
+      <c r="Y51" s="91"/>
+      <c r="Z51" s="92"/>
     </row>
     <row r="52" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="58" t="s">
         <v>203</v>
       </c>
-      <c r="B52" s="177"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="178"/>
-      <c r="L52" s="178"/>
-      <c r="M52" s="178"/>
-      <c r="N52" s="178"/>
-      <c r="O52" s="178"/>
-      <c r="P52" s="178"/>
-      <c r="Q52" s="178"/>
-      <c r="R52" s="178"/>
-      <c r="S52" s="178"/>
-      <c r="T52" s="178"/>
-      <c r="U52" s="178"/>
-      <c r="V52" s="178"/>
-      <c r="W52" s="178"/>
-      <c r="X52" s="178"/>
-      <c r="Y52" s="178"/>
-      <c r="Z52" s="179"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="118"/>
+      <c r="D52" s="118"/>
+      <c r="E52" s="118"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="118"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="118"/>
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="118"/>
+      <c r="X52" s="118"/>
+      <c r="Y52" s="118"/>
+      <c r="Z52" s="119"/>
     </row>
     <row r="53" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="58" t="s">
         <v>204</v>
       </c>
-      <c r="B53" s="177"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="178"/>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="178"/>
-      <c r="O53" s="178"/>
-      <c r="P53" s="178"/>
-      <c r="Q53" s="178"/>
-      <c r="R53" s="178"/>
-      <c r="S53" s="178"/>
-      <c r="T53" s="178"/>
-      <c r="U53" s="178"/>
-      <c r="V53" s="178"/>
-      <c r="W53" s="178"/>
-      <c r="X53" s="178"/>
-      <c r="Y53" s="178"/>
-      <c r="Z53" s="179"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="118"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="118"/>
+      <c r="N53" s="118"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="118"/>
+      <c r="R53" s="118"/>
+      <c r="S53" s="118"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="118"/>
+      <c r="V53" s="118"/>
+      <c r="W53" s="118"/>
+      <c r="X53" s="118"/>
+      <c r="Y53" s="118"/>
+      <c r="Z53" s="119"/>
     </row>
     <row r="54" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="58" t="s">
         <v>205</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="178"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="178"/>
-      <c r="O54" s="178"/>
-      <c r="P54" s="178"/>
-      <c r="Q54" s="178"/>
-      <c r="R54" s="178"/>
-      <c r="S54" s="178"/>
-      <c r="T54" s="178"/>
-      <c r="U54" s="178"/>
-      <c r="V54" s="178"/>
-      <c r="W54" s="178"/>
-      <c r="X54" s="178"/>
-      <c r="Y54" s="178"/>
-      <c r="Z54" s="179"/>
+      <c r="B54" s="117"/>
+      <c r="C54" s="118"/>
+      <c r="D54" s="118"/>
+      <c r="E54" s="118"/>
+      <c r="F54" s="118"/>
+      <c r="G54" s="118"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="118"/>
+      <c r="N54" s="118"/>
+      <c r="O54" s="118"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="118"/>
+      <c r="R54" s="118"/>
+      <c r="S54" s="118"/>
+      <c r="T54" s="118"/>
+      <c r="U54" s="118"/>
+      <c r="V54" s="118"/>
+      <c r="W54" s="118"/>
+      <c r="X54" s="118"/>
+      <c r="Y54" s="118"/>
+      <c r="Z54" s="119"/>
     </row>
     <row r="55" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="58" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="177"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="178"/>
-      <c r="H55" s="178"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="178"/>
-      <c r="K55" s="178"/>
-      <c r="L55" s="178"/>
-      <c r="M55" s="178"/>
-      <c r="N55" s="178"/>
-      <c r="O55" s="178"/>
-      <c r="P55" s="178"/>
-      <c r="Q55" s="178"/>
-      <c r="R55" s="178"/>
-      <c r="S55" s="178"/>
-      <c r="T55" s="178"/>
-      <c r="U55" s="178"/>
-      <c r="V55" s="178"/>
-      <c r="W55" s="178"/>
-      <c r="X55" s="178"/>
-      <c r="Y55" s="178"/>
-      <c r="Z55" s="179"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="118"/>
+      <c r="D55" s="118"/>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="118"/>
+      <c r="N55" s="118"/>
+      <c r="O55" s="118"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="118"/>
+      <c r="R55" s="118"/>
+      <c r="S55" s="118"/>
+      <c r="T55" s="118"/>
+      <c r="U55" s="118"/>
+      <c r="V55" s="118"/>
+      <c r="W55" s="118"/>
+      <c r="X55" s="118"/>
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="119"/>
       <c r="AA55" s="35"/>
     </row>
     <row r="56" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="180"/>
-      <c r="C56" s="181"/>
-      <c r="D56" s="181"/>
-      <c r="E56" s="181"/>
-      <c r="F56" s="181"/>
-      <c r="G56" s="181"/>
-      <c r="H56" s="181"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="181"/>
-      <c r="K56" s="181"/>
-      <c r="L56" s="181"/>
-      <c r="M56" s="181"/>
-      <c r="N56" s="181"/>
-      <c r="O56" s="181"/>
-      <c r="P56" s="181"/>
-      <c r="Q56" s="181"/>
-      <c r="R56" s="181"/>
-      <c r="S56" s="181"/>
-      <c r="T56" s="181"/>
-      <c r="U56" s="181"/>
-      <c r="V56" s="181"/>
-      <c r="W56" s="181"/>
-      <c r="X56" s="181"/>
-      <c r="Y56" s="181"/>
-      <c r="Z56" s="182"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="121"/>
+      <c r="L56" s="121"/>
+      <c r="M56" s="121"/>
+      <c r="N56" s="121"/>
+      <c r="O56" s="121"/>
+      <c r="P56" s="121"/>
+      <c r="Q56" s="121"/>
+      <c r="R56" s="121"/>
+      <c r="S56" s="121"/>
+      <c r="T56" s="121"/>
+      <c r="U56" s="121"/>
+      <c r="V56" s="121"/>
+      <c r="W56" s="121"/>
+      <c r="X56" s="121"/>
+      <c r="Y56" s="121"/>
+      <c r="Z56" s="122"/>
     </row>
     <row r="57" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="36"/>
@@ -33438,90 +33438,90 @@
     </row>
     <row r="59" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="36"/>
-      <c r="B59" s="175"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="F59" s="88"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="88"/>
-      <c r="I59" s="88"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="88"/>
+      <c r="B59" s="108"/>
+      <c r="C59" s="109"/>
+      <c r="D59" s="109"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
       <c r="O59" s="36"/>
-      <c r="P59" s="175"/>
-      <c r="Q59" s="88"/>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
-      <c r="V59" s="88"/>
-      <c r="W59" s="88"/>
-      <c r="X59" s="88"/>
-      <c r="Y59" s="88"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="109"/>
+      <c r="W59" s="109"/>
+      <c r="X59" s="109"/>
+      <c r="Y59" s="109"/>
       <c r="Z59" s="36"/>
     </row>
     <row r="60" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="36"/>
-      <c r="B60" s="147"/>
-      <c r="C60" s="133"/>
-      <c r="D60" s="133"/>
-      <c r="E60" s="133"/>
-      <c r="F60" s="133"/>
-      <c r="G60" s="133"/>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
-      <c r="J60" s="133"/>
-      <c r="K60" s="133"/>
+      <c r="B60" s="110"/>
+      <c r="C60" s="111"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="111"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="111"/>
+      <c r="H60" s="111"/>
+      <c r="I60" s="111"/>
+      <c r="J60" s="111"/>
+      <c r="K60" s="111"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
       <c r="O60" s="36"/>
-      <c r="P60" s="147"/>
-      <c r="Q60" s="133"/>
-      <c r="R60" s="133"/>
-      <c r="S60" s="133"/>
-      <c r="T60" s="133"/>
-      <c r="U60" s="133"/>
-      <c r="V60" s="133"/>
-      <c r="W60" s="133"/>
-      <c r="X60" s="133"/>
-      <c r="Y60" s="133"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="111"/>
+      <c r="R60" s="111"/>
+      <c r="S60" s="111"/>
+      <c r="T60" s="111"/>
+      <c r="U60" s="111"/>
+      <c r="V60" s="111"/>
+      <c r="W60" s="111"/>
+      <c r="X60" s="111"/>
+      <c r="Y60" s="111"/>
       <c r="Z60" s="36"/>
     </row>
     <row r="61" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="36"/>
-      <c r="B61" s="147" t="s">
+      <c r="B61" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="133"/>
-      <c r="D61" s="133"/>
-      <c r="E61" s="133"/>
-      <c r="F61" s="133"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="133"/>
-      <c r="I61" s="133"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="133"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="111"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
       <c r="O61" s="36"/>
-      <c r="P61" s="147" t="s">
+      <c r="P61" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="Q61" s="133"/>
-      <c r="R61" s="133"/>
-      <c r="S61" s="133"/>
-      <c r="T61" s="133"/>
-      <c r="U61" s="133"/>
-      <c r="V61" s="133"/>
-      <c r="W61" s="133"/>
-      <c r="X61" s="133"/>
-      <c r="Y61" s="133"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
+      <c r="V61" s="111"/>
+      <c r="W61" s="111"/>
+      <c r="X61" s="111"/>
+      <c r="Y61" s="111"/>
       <c r="Z61" s="36"/>
     </row>
     <row r="62" spans="1:27" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -59818,29 +59818,133 @@
     </row>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="Q47:Z48"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:Z50"/>
-    <mergeCell ref="B51:Z51"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H46:P46"/>
-    <mergeCell ref="Q46:Z46"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="T43:U43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="A45:Z45"/>
-    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="X39:Z39"/>
+    <mergeCell ref="X40:Z40"/>
+    <mergeCell ref="X41:Z41"/>
+    <mergeCell ref="X42:Z42"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="X35:Z35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="X36:Z36"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="X37:Z37"/>
+    <mergeCell ref="X38:Z38"/>
+    <mergeCell ref="E18:J19"/>
+    <mergeCell ref="K18:P19"/>
+    <mergeCell ref="Q18:U19"/>
+    <mergeCell ref="V18:Z19"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="A18:D19"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="U15:Z15"/>
+    <mergeCell ref="A17:Z17"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O13:T13"/>
+    <mergeCell ref="U13:Z14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="R14:T14"/>
+    <mergeCell ref="A1:C3"/>
+    <mergeCell ref="D1:W3"/>
+    <mergeCell ref="X1:Z3"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="O9:Z9"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:Z12"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="Q33:U33"/>
+    <mergeCell ref="V33:V34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A32:Z32"/>
+    <mergeCell ref="A33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:M33"/>
+    <mergeCell ref="N33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="X33:Z34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="O28:R29"/>
+    <mergeCell ref="S28:V29"/>
+    <mergeCell ref="W28:Z29"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:H29"/>
+    <mergeCell ref="I28:N29"/>
+    <mergeCell ref="I26:N27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="W27:Z27"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:H23"/>
+    <mergeCell ref="A25:Z25"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="O26:Z26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="Q20:U23"/>
+    <mergeCell ref="V20:Z23"/>
+    <mergeCell ref="I22:J23"/>
+    <mergeCell ref="K22:L23"/>
+    <mergeCell ref="M22:N23"/>
+    <mergeCell ref="O22:P23"/>
+    <mergeCell ref="A20:D23"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="G20:H21"/>
+    <mergeCell ref="I20:J21"/>
+    <mergeCell ref="K20:L21"/>
+    <mergeCell ref="M20:N21"/>
+    <mergeCell ref="O20:P21"/>
     <mergeCell ref="B59:K59"/>
     <mergeCell ref="P59:Y59"/>
     <mergeCell ref="B60:K60"/>
@@ -59865,133 +59969,29 @@
     <mergeCell ref="B55:Z55"/>
     <mergeCell ref="B56:Z56"/>
     <mergeCell ref="H42:J42"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:H23"/>
-    <mergeCell ref="A25:Z25"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="O26:Z26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="Q20:U23"/>
-    <mergeCell ref="V20:Z23"/>
-    <mergeCell ref="I22:J23"/>
-    <mergeCell ref="K22:L23"/>
-    <mergeCell ref="M22:N23"/>
-    <mergeCell ref="O22:P23"/>
-    <mergeCell ref="A20:D23"/>
-    <mergeCell ref="E20:F21"/>
-    <mergeCell ref="G20:H21"/>
-    <mergeCell ref="I20:J21"/>
-    <mergeCell ref="K20:L21"/>
-    <mergeCell ref="M20:N21"/>
-    <mergeCell ref="O20:P21"/>
-    <mergeCell ref="O28:R29"/>
-    <mergeCell ref="S28:V29"/>
-    <mergeCell ref="W28:Z29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:H29"/>
-    <mergeCell ref="I28:N29"/>
-    <mergeCell ref="I26:N27"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="S27:V27"/>
-    <mergeCell ref="W27:Z27"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="V33:V34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A32:Z32"/>
-    <mergeCell ref="A33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:M33"/>
-    <mergeCell ref="N33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="X33:Z34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="A1:C3"/>
-    <mergeCell ref="D1:W3"/>
-    <mergeCell ref="X1:Z3"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="O9:Z9"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:Z12"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="O14:Q14"/>
-    <mergeCell ref="E18:J19"/>
-    <mergeCell ref="K18:P19"/>
-    <mergeCell ref="Q18:U19"/>
-    <mergeCell ref="V18:Z19"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="A18:D19"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="U15:Z15"/>
-    <mergeCell ref="A17:Z17"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:H13"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="O13:T13"/>
-    <mergeCell ref="U13:Z14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="R14:T14"/>
-    <mergeCell ref="X35:Z35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="X36:Z36"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="X37:Z37"/>
-    <mergeCell ref="X38:Z38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="X39:Z39"/>
-    <mergeCell ref="X40:Z40"/>
-    <mergeCell ref="X41:Z41"/>
-    <mergeCell ref="X42:Z42"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H46:P46"/>
+    <mergeCell ref="Q46:Z46"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="A45:Z45"/>
+    <mergeCell ref="A46:G46"/>
+    <mergeCell ref="Q47:Z48"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:Z50"/>
+    <mergeCell ref="B51:Z51"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
   </mergeCells>
   <phoneticPr fontId="26" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
